--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H2">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I2">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J2">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.254050666666667</v>
+        <v>0.140567</v>
       </c>
       <c r="N2">
-        <v>6.762152</v>
+        <v>0.421701</v>
       </c>
       <c r="O2">
-        <v>0.5759961839619929</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="P2">
-        <v>0.575996183961993</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="Q2">
-        <v>14.91071346244978</v>
+        <v>0.1734301120743333</v>
       </c>
       <c r="R2">
-        <v>134.196421162048</v>
+        <v>1.560871008669</v>
       </c>
       <c r="S2">
-        <v>0.0005135851475874378</v>
+        <v>1.299773060867963E-05</v>
       </c>
       <c r="T2">
-        <v>0.0005135851475874378</v>
+        <v>1.299773060867963E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H3">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I3">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J3">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.161141</v>
       </c>
       <c r="O3">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="P3">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="Q3">
-        <v>0.3553199156204444</v>
+        <v>0.06627136689211112</v>
       </c>
       <c r="R3">
-        <v>3.197879240584</v>
+        <v>0.5964423020290001</v>
       </c>
       <c r="S3">
-        <v>1.223865187700414E-05</v>
+        <v>4.966711741288837E-06</v>
       </c>
       <c r="T3">
-        <v>1.223865187700414E-05</v>
+        <v>4.966711741288837E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.615074666666666</v>
+        <v>1.233789666666667</v>
       </c>
       <c r="H4">
-        <v>19.845224</v>
+        <v>3.701369</v>
       </c>
       <c r="I4">
-        <v>0.0008916467884469989</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="J4">
-        <v>0.0008916467884469988</v>
+        <v>0.0001664233864291757</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.816632</v>
       </c>
       <c r="O4">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="P4">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="Q4">
-        <v>10.62079344061867</v>
+        <v>1.980903596578667</v>
       </c>
       <c r="R4">
-        <v>95.587140965568</v>
+        <v>17.828132369208</v>
       </c>
       <c r="S4">
-        <v>0.0003658229889825569</v>
+        <v>0.0001484589440792072</v>
       </c>
       <c r="T4">
-        <v>0.0003658229889825569</v>
+        <v>0.0001484589440792072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I5">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J5">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.254050666666667</v>
+        <v>0.140567</v>
       </c>
       <c r="N5">
-        <v>6.762152</v>
+        <v>0.421701</v>
       </c>
       <c r="O5">
-        <v>0.5759961839619929</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="P5">
-        <v>0.575996183961993</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="Q5">
-        <v>16422.33921647046</v>
+        <v>1024.129133732103</v>
       </c>
       <c r="R5">
-        <v>147801.0529482341</v>
+        <v>9217.162203588927</v>
       </c>
       <c r="S5">
-        <v>0.5656516391024677</v>
+        <v>0.07675342205305713</v>
       </c>
       <c r="T5">
-        <v>0.5656516391024677</v>
+        <v>0.07675342205305713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I6">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J6">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.161141</v>
       </c>
       <c r="O6">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="P6">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="Q6">
         <v>391.341715430423</v>
@@ -818,10 +818,10 @@
         <v>3522.075438873807</v>
       </c>
       <c r="S6">
-        <v>0.01347938803750799</v>
+        <v>0.02932912936666425</v>
       </c>
       <c r="T6">
-        <v>0.01347938803750799</v>
+        <v>0.02932912936666425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21857.103027</v>
       </c>
       <c r="I7">
-        <v>0.9820406017477925</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="J7">
-        <v>0.9820406017477923</v>
+        <v>0.9827534361704352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.816632</v>
       </c>
       <c r="O7">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="P7">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="Q7">
         <v>11697.5135407939</v>
@@ -880,10 +880,10 @@
         <v>105277.6218671451</v>
       </c>
       <c r="S7">
-        <v>0.4029095746078167</v>
+        <v>0.8766708847507138</v>
       </c>
       <c r="T7">
-        <v>0.4029095746078167</v>
+        <v>0.8766708847507138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>379.873909</v>
       </c>
       <c r="I8">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J8">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.254050666666667</v>
+        <v>0.140567</v>
       </c>
       <c r="N8">
-        <v>6.762152</v>
+        <v>0.421701</v>
       </c>
       <c r="O8">
-        <v>0.5759961839619929</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="P8">
-        <v>0.575996183961993</v>
+        <v>0.07810038533383065</v>
       </c>
       <c r="Q8">
-        <v>285.4183459435743</v>
+        <v>17.79924525546767</v>
       </c>
       <c r="R8">
-        <v>2568.765113492168</v>
+        <v>160.193207299209</v>
       </c>
       <c r="S8">
-        <v>0.009830959711937842</v>
+        <v>0.001333965550164839</v>
       </c>
       <c r="T8">
-        <v>0.009830959711937842</v>
+        <v>0.001333965550164839</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>379.873909</v>
       </c>
       <c r="I9">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J9">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.161141</v>
       </c>
       <c r="O9">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="P9">
-        <v>0.01372589688605336</v>
+        <v>0.02984383293631935</v>
       </c>
       <c r="Q9">
         <v>6.801473507796556</v>
@@ -1004,10 +1004,10 @@
         <v>61.21326157016901</v>
       </c>
       <c r="S9">
-        <v>0.0002342701966683647</v>
+        <v>0.0005097368579138117</v>
       </c>
       <c r="T9">
-        <v>0.0002342701966683647</v>
+        <v>0.0005097368579138117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>379.873909</v>
       </c>
       <c r="I10">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="J10">
-        <v>0.01706775146376063</v>
+        <v>0.01708014044313564</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.816632</v>
       </c>
       <c r="O10">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="P10">
-        <v>0.4102779191519537</v>
+        <v>0.8920557817298499</v>
       </c>
       <c r="Q10">
         <v>203.3014251171654</v>
@@ -1066,10 +1066,10 @@
         <v>1829.712826054488</v>
       </c>
       <c r="S10">
-        <v>0.007002521555154423</v>
+        <v>0.01523643803505699</v>
       </c>
       <c r="T10">
-        <v>0.007002521555154422</v>
+        <v>0.01523643803505699</v>
       </c>
     </row>
   </sheetData>
